--- a/mosip_master/xlsx/template_file_format.xlsx
+++ b/mosip_master/xlsx/template_file_format.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kames\IdeaProjects\mosip-data\mosip_master\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Office\codes\bfa\mosip-data\mosip_master\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DCFE9C5-B7D9-473E-A31E-E2DF19F7A186}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="984" yWindow="-108" windowWidth="19416" windowHeight="10296" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
     <t>lang_code</t>
   </si>
@@ -39,55 +38,37 @@
     <t>is_active</t>
   </si>
   <si>
-    <t>eng</t>
-  </si>
-  <si>
     <t>txt</t>
   </si>
   <si>
-    <t>Text File</t>
-  </si>
-  <si>
-    <t>TRUE</t>
-  </si>
-  <si>
     <t>xml</t>
   </si>
   <si>
-    <t>XML File</t>
-  </si>
-  <si>
     <t>json</t>
   </si>
   <si>
-    <t>Json File</t>
-  </si>
-  <si>
     <t>html</t>
   </si>
   <si>
-    <t>html file</t>
-  </si>
-  <si>
     <t>fra</t>
   </si>
   <si>
-    <t>ara</t>
-  </si>
-  <si>
-    <t>kan</t>
-  </si>
-  <si>
-    <t>hin</t>
-  </si>
-  <si>
-    <t>tam</t>
+    <t>Fichier texte</t>
+  </si>
+  <si>
+    <t>Fichier XML</t>
+  </si>
+  <si>
+    <t>Fichier Json</t>
+  </si>
+  <si>
+    <t>fichier html</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -426,19 +407,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="8.453125" style="1"/>
+    <col min="4" max="4" width="8.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -452,340 +433,60 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>7</v>
+      <c r="D4" t="b">
+        <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>17</v>
-      </c>
-      <c r="B20" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" t="s">
-        <v>11</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>17</v>
-      </c>
-      <c r="B21" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" t="s">
-        <v>13</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>18</v>
-      </c>
-      <c r="B22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22" t="s">
-        <v>6</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>18</v>
-      </c>
-      <c r="B23" t="s">
-        <v>8</v>
-      </c>
-      <c r="C23" t="s">
-        <v>9</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>18</v>
-      </c>
-      <c r="B24" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" t="s">
-        <v>11</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>18</v>
-      </c>
-      <c r="B25" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" t="s">
-        <v>13</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>7</v>
+      <c r="D5" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
